--- a/Documentos/Projeto/G5-PC-Planilha_Custo.xlsx
+++ b/Documentos/Projeto/G5-PC-Planilha_Custo.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3DB-felipe\Documents\GitHub\QualidadeSoftware2015\Documentos\Projeto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="Print_Titles" localSheetId="0">Budget!$A$1:$IV$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Budget/Orçamento</t>
   </si>
@@ -72,9 +67,6 @@
     <t>Salarios</t>
   </si>
   <si>
-    <t>Hora-homem</t>
-  </si>
-  <si>
     <t>nº de horas</t>
   </si>
   <si>
@@ -102,9 +94,6 @@
     <t>Gerente de Requisitos</t>
   </si>
   <si>
-    <t>Alocação de sala</t>
-  </si>
-  <si>
     <t>Material de escritorio</t>
   </si>
   <si>
@@ -139,16 +128,35 @@
   </si>
   <si>
     <t>Atualizado em: 06/06/2015</t>
+  </si>
+  <si>
+    <t>Hora-homem (mensal)</t>
+  </si>
+  <si>
+    <t>Analista de Testes</t>
+  </si>
+  <si>
+    <t>Local para Reuniões</t>
+  </si>
+  <si>
+    <t>Custo de Contingência do Projeto</t>
+  </si>
+  <si>
+    <t>Treinamentos</t>
+  </si>
+  <si>
+    <t>Provisão da Inflação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -220,6 +228,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -247,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -404,11 +430,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -417,23 +507,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -450,30 +528,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -491,13 +559,80 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,7 +691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,7 +726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -768,7 +903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,28 +911,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -805,10 +940,10 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -816,10 +951,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -827,95 +962,95 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>500000</v>
-      </c>
-      <c r="B8" s="8">
-        <v>330000</v>
-      </c>
-      <c r="C8" s="9">
-        <v>110000</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="A8" s="35">
+        <v>120000</v>
+      </c>
+      <c r="B8" s="35">
+        <v>106220</v>
+      </c>
+      <c r="C8" s="36">
+        <v>101400</v>
+      </c>
+      <c r="D8" s="37">
         <f>SUM(B8-C8)</f>
-        <v>220000</v>
-      </c>
-      <c r="E8" s="21"/>
+        <v>4820</v>
+      </c>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="6">
+      <c r="A10" s="19"/>
+      <c r="B10" s="35">
         <f>SUM(A8-B8)</f>
-        <v>170000</v>
-      </c>
-      <c r="C10" s="11">
+        <v>13780</v>
+      </c>
+      <c r="C10" s="36">
         <f>SUM(A8-C8)</f>
-        <v>390000</v>
-      </c>
-      <c r="D10" s="20">
+        <v>18600</v>
+      </c>
+      <c r="D10" s="37">
         <f>SUM(C10-B10)</f>
-        <v>220000</v>
-      </c>
-      <c r="E10" s="21"/>
+        <v>4820</v>
+      </c>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -925,297 +1060,335 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="B16" s="35">
+        <v>110</v>
+      </c>
+      <c r="C16" s="10">
+        <v>100</v>
+      </c>
+      <c r="D16" s="35">
+        <f t="shared" ref="D16:D23" si="0">SUM(B16*C16)</f>
+        <v>11000</v>
+      </c>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8">
-        <v>110</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B17" s="35">
+        <v>90</v>
+      </c>
+      <c r="C17" s="10">
         <v>100</v>
       </c>
-      <c r="D16" s="6">
-        <f t="shared" ref="D16:D22" si="0">SUM(B16*C16)</f>
-        <v>11000</v>
-      </c>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="8">
-        <v>90</v>
-      </c>
-      <c r="C17" s="14">
-        <v>100</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="D17" s="35">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="35">
         <v>70</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <v>100</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="35">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="35">
         <v>100</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="10">
         <v>100</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="35">
+        <v>100</v>
+      </c>
+      <c r="C20" s="10">
+        <v>120</v>
+      </c>
+      <c r="D20" s="35">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="8">
-        <v>130</v>
-      </c>
-      <c r="C20" s="14">
-        <v>120</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>15600</v>
-      </c>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="B21" s="35">
         <v>100</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="10">
         <v>100</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="A22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="35">
         <v>100</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="10">
         <v>100</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="35">
+        <v>70</v>
+      </c>
+      <c r="C23" s="10">
+        <v>100</v>
+      </c>
+      <c r="D23" s="35">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="35">
+        <v>400</v>
+      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="8">
-        <v>60000</v>
-      </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="45">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="45">
+        <v>10000</v>
+      </c>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="8">
-        <v>15000</v>
-      </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="52">
+        <f>SUM(D16:D30)</f>
+        <v>90400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="17">
-        <f>SUM(D15:D27)</f>
-        <v>152600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="35">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="35">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="8">
-        <v>30000</v>
-      </c>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="54">
+        <f>SUM(D34:D35)</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="17">
-        <f>SUM(D30:D32)</f>
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="19">
-        <f>SUM(E15:E33)</f>
-        <v>183600</v>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="56">
+        <f>SUM(E15:E37)</f>
+        <v>106220</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="E30:E32"/>
+  <mergeCells count="29">
+    <mergeCell ref="E15:E28"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A5:D5"/>
@@ -1224,10 +1397,24 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E15:E27"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>